--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 MS.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 MS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>Course</t>
   </si>
@@ -64,10 +64,10 @@
     <t>CANTRELL C</t>
   </si>
   <si>
-    <t>92.52%</t>
-  </si>
-  <si>
-    <t>7.48%</t>
+    <t>93.17%</t>
+  </si>
+  <si>
+    <t>6.83%</t>
   </si>
   <si>
     <t>AERS-105</t>
@@ -91,13 +91,13 @@
     <t>MCCLANAHAN R</t>
   </si>
   <si>
-    <t>96.50%</t>
-  </si>
-  <si>
-    <t>2.80%</t>
-  </si>
-  <si>
-    <t>0.70%</t>
+    <t>93.78%</t>
+  </si>
+  <si>
+    <t>5.70%</t>
+  </si>
+  <si>
+    <t>0.52%</t>
   </si>
   <si>
     <t>AERS-303</t>
@@ -112,10 +112,10 @@
     <t>SISSON S</t>
   </si>
   <si>
-    <t>95.12%</t>
-  </si>
-  <si>
-    <t>4.88%</t>
+    <t>90.91%</t>
+  </si>
+  <si>
+    <t>9.09%</t>
   </si>
   <si>
     <t>MLSC-121</t>
@@ -124,19 +124,19 @@
     <t>NICKEL J</t>
   </si>
   <si>
-    <t>28.34%</t>
-  </si>
-  <si>
-    <t>51.87%</t>
-  </si>
-  <si>
-    <t>15.51%</t>
-  </si>
-  <si>
-    <t>2.67%</t>
-  </si>
-  <si>
-    <t>1.60%</t>
+    <t>29.66%</t>
+  </si>
+  <si>
+    <t>52.97%</t>
+  </si>
+  <si>
+    <t>12.71%</t>
+  </si>
+  <si>
+    <t>2.97%</t>
+  </si>
+  <si>
+    <t>1.69%</t>
   </si>
   <si>
     <t>MLSC-221</t>
@@ -145,16 +145,16 @@
     <t>JENKINS C</t>
   </si>
   <si>
-    <t>67.31%</t>
-  </si>
-  <si>
-    <t>22.12%</t>
-  </si>
-  <si>
-    <t>9.62%</t>
-  </si>
-  <si>
-    <t>0.96%</t>
+    <t>71.86%</t>
+  </si>
+  <si>
+    <t>19.10%</t>
+  </si>
+  <si>
+    <t>8.04%</t>
+  </si>
+  <si>
+    <t>0.50%</t>
   </si>
   <si>
     <t>MLSC-321</t>
@@ -178,10 +178,10 @@
     <t>MLSC-421</t>
   </si>
   <si>
-    <t>65.85%</t>
-  </si>
-  <si>
-    <t>29.27%</t>
+    <t>66.37%</t>
+  </si>
+  <si>
+    <t>29.20%</t>
   </si>
   <si>
     <t>MLSC-485</t>
@@ -196,249 +196,303 @@
     <t>MURTY J</t>
   </si>
   <si>
+    <t>52.38%</t>
+  </si>
+  <si>
+    <t>26.98%</t>
+  </si>
+  <si>
+    <t>17.46%</t>
+  </si>
+  <si>
+    <t>3.17%</t>
+  </si>
+  <si>
+    <t>MANSELL H</t>
+  </si>
+  <si>
+    <t>55.17%</t>
+  </si>
+  <si>
+    <t>34.48%</t>
+  </si>
+  <si>
+    <t>9.20%</t>
+  </si>
+  <si>
+    <t>1.15%</t>
+  </si>
+  <si>
+    <t>HAYNIE D</t>
+  </si>
+  <si>
+    <t>37.21%</t>
+  </si>
+  <si>
+    <t>46.51%</t>
+  </si>
+  <si>
+    <t>13.95%</t>
+  </si>
+  <si>
+    <t>2.33%</t>
+  </si>
+  <si>
+    <t>TRASK D</t>
+  </si>
+  <si>
+    <t>58.54%</t>
+  </si>
+  <si>
+    <t>39.02%</t>
+  </si>
+  <si>
+    <t>2.44%</t>
+  </si>
+  <si>
+    <t>NVSC-210</t>
+  </si>
+  <si>
+    <t>GARCIA O</t>
+  </si>
+  <si>
+    <t>54.90%</t>
+  </si>
+  <si>
+    <t>43.14%</t>
+  </si>
+  <si>
+    <t>1.96%</t>
+  </si>
+  <si>
+    <t>KRAUS J</t>
+  </si>
+  <si>
+    <t>54.00%</t>
+  </si>
+  <si>
+    <t>44.00%</t>
+  </si>
+  <si>
+    <t>2.00%</t>
+  </si>
+  <si>
+    <t>GENETTI A</t>
+  </si>
+  <si>
+    <t>53.45%</t>
+  </si>
+  <si>
+    <t>39.66%</t>
+  </si>
+  <si>
+    <t>5.17%</t>
+  </si>
+  <si>
+    <t>1.72%</t>
+  </si>
+  <si>
+    <t>NVSC-320</t>
+  </si>
+  <si>
+    <t>TENNIS M</t>
+  </si>
+  <si>
+    <t>62.50%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>2.50%</t>
+  </si>
+  <si>
+    <t>NVSC-404</t>
+  </si>
+  <si>
+    <t>75.00%</t>
+  </si>
+  <si>
+    <t>17.86%</t>
+  </si>
+  <si>
+    <t>7.14%</t>
+  </si>
+  <si>
+    <t>NVSC-410</t>
+  </si>
+  <si>
+    <t>CASEY C</t>
+  </si>
+  <si>
+    <t>70.00%</t>
+  </si>
+  <si>
+    <t>5.00%</t>
+  </si>
+  <si>
+    <t>NVSC-485</t>
+  </si>
+  <si>
+    <t>SOMS-111</t>
+  </si>
+  <si>
+    <t>SIMPSON M</t>
+  </si>
+  <si>
+    <t>88.05%</t>
+  </si>
+  <si>
+    <t>9.29%</t>
+  </si>
+  <si>
+    <t>0.44%</t>
+  </si>
+  <si>
+    <t>1.33%</t>
+  </si>
+  <si>
+    <t>KOGUT R</t>
+  </si>
+  <si>
+    <t>79.45%</t>
+  </si>
+  <si>
+    <t>10.96%</t>
+  </si>
+  <si>
+    <t>4.11%</t>
+  </si>
+  <si>
+    <t>5.48%</t>
+  </si>
+  <si>
+    <t>VELA C</t>
+  </si>
+  <si>
+    <t>88.14%</t>
+  </si>
+  <si>
+    <t>5.08%</t>
+  </si>
+  <si>
+    <t>2.54%</t>
+  </si>
+  <si>
+    <t>4.24%</t>
+  </si>
+  <si>
+    <t>SOMS-180</t>
+  </si>
+  <si>
+    <t>FELTS T</t>
+  </si>
+  <si>
+    <t>84.62%</t>
+  </si>
+  <si>
+    <t>15.38%</t>
+  </si>
+  <si>
+    <t>SOMS-380</t>
+  </si>
+  <si>
+    <t>WENTLING D</t>
+  </si>
+  <si>
+    <t>85.71%</t>
+  </si>
+  <si>
+    <t>14.29%</t>
+  </si>
+  <si>
+    <t>SHEHANE M</t>
+  </si>
+  <si>
+    <t>76.92%</t>
+  </si>
+  <si>
+    <t>11.54%</t>
+  </si>
+  <si>
+    <t>7.69%</t>
+  </si>
+  <si>
+    <t>3.85%</t>
+  </si>
+  <si>
+    <t>POWERS T</t>
+  </si>
+  <si>
+    <t>CRAWFORD K</t>
+  </si>
+  <si>
+    <t>10.71%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>OTHOLD L</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
+    <t>8.33%</t>
+  </si>
+  <si>
+    <t>FRYSINGER V</t>
+  </si>
+  <si>
+    <t>68.75%</t>
+  </si>
+  <si>
+    <t>4.17%</t>
+  </si>
+  <si>
+    <t>2.08%</t>
+  </si>
+  <si>
+    <t>POWELL L</t>
+  </si>
+  <si>
+    <t>88.24%</t>
+  </si>
+  <si>
+    <t>5.88%</t>
+  </si>
+  <si>
+    <t>3.92%</t>
+  </si>
+  <si>
+    <t>STURTEVANT K</t>
+  </si>
+  <si>
+    <t>53.85%</t>
+  </si>
+  <si>
+    <t>30.77%</t>
+  </si>
+  <si>
+    <t>MORRIS S</t>
+  </si>
+  <si>
+    <t>16.67%</t>
+  </si>
+  <si>
+    <t>PRESTON T</t>
+  </si>
+  <si>
+    <t>20.83%</t>
+  </si>
+  <si>
     <t>50.00%</t>
   </si>
   <si>
-    <t>30.00%</t>
-  </si>
-  <si>
-    <t>16.00%</t>
-  </si>
-  <si>
-    <t>4.00%</t>
-  </si>
-  <si>
-    <t>HAYNIE D</t>
-  </si>
-  <si>
-    <t>37.21%</t>
-  </si>
-  <si>
-    <t>46.51%</t>
-  </si>
-  <si>
-    <t>13.95%</t>
-  </si>
-  <si>
-    <t>2.33%</t>
-  </si>
-  <si>
-    <t>TRASK D</t>
-  </si>
-  <si>
-    <t>58.54%</t>
-  </si>
-  <si>
-    <t>39.02%</t>
-  </si>
-  <si>
-    <t>2.44%</t>
-  </si>
-  <si>
-    <t>MANSELL H</t>
-  </si>
-  <si>
-    <t>55.17%</t>
-  </si>
-  <si>
-    <t>34.48%</t>
-  </si>
-  <si>
-    <t>9.20%</t>
-  </si>
-  <si>
-    <t>1.15%</t>
-  </si>
-  <si>
-    <t>NVSC-320</t>
-  </si>
-  <si>
-    <t>TENNIS M</t>
-  </si>
-  <si>
-    <t>53.85%</t>
-  </si>
-  <si>
-    <t>38.46%</t>
-  </si>
-  <si>
-    <t>7.69%</t>
-  </si>
-  <si>
-    <t>NVSC-404</t>
-  </si>
-  <si>
-    <t>KRAUS J</t>
-  </si>
-  <si>
-    <t>75.00%</t>
-  </si>
-  <si>
-    <t>17.86%</t>
-  </si>
-  <si>
-    <t>7.14%</t>
-  </si>
-  <si>
-    <t>NVSC-410</t>
-  </si>
-  <si>
-    <t>CASEY C</t>
-  </si>
-  <si>
-    <t>70.00%</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
-  </si>
-  <si>
-    <t>NVSC-485</t>
-  </si>
-  <si>
-    <t>SOMS-111</t>
-  </si>
-  <si>
-    <t>SIMPSON M</t>
-  </si>
-  <si>
-    <t>88.33%</t>
-  </si>
-  <si>
-    <t>9.44%</t>
-  </si>
-  <si>
-    <t>1.11%</t>
-  </si>
-  <si>
-    <t>KOGUT R</t>
-  </si>
-  <si>
-    <t>79.45%</t>
-  </si>
-  <si>
-    <t>10.96%</t>
-  </si>
-  <si>
-    <t>4.11%</t>
-  </si>
-  <si>
-    <t>5.48%</t>
-  </si>
-  <si>
-    <t>VELA C</t>
-  </si>
-  <si>
-    <t>3.33%</t>
-  </si>
-  <si>
-    <t>1.67%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
-  </si>
-  <si>
-    <t>SOMS-180</t>
-  </si>
-  <si>
-    <t>FELTS T</t>
-  </si>
-  <si>
-    <t>84.62%</t>
-  </si>
-  <si>
-    <t>15.38%</t>
-  </si>
-  <si>
-    <t>SOMS-380</t>
-  </si>
-  <si>
-    <t>WENTLING D</t>
-  </si>
-  <si>
-    <t>83.33%</t>
-  </si>
-  <si>
-    <t>16.67%</t>
-  </si>
-  <si>
-    <t>SHEHANE M</t>
-  </si>
-  <si>
-    <t>76.92%</t>
-  </si>
-  <si>
-    <t>11.54%</t>
-  </si>
-  <si>
-    <t>3.85%</t>
-  </si>
-  <si>
-    <t>POWERS T</t>
-  </si>
-  <si>
-    <t>CRAWFORD K</t>
-  </si>
-  <si>
-    <t>10.71%</t>
-  </si>
-  <si>
-    <t>3.57%</t>
-  </si>
-  <si>
-    <t>OTHOLD L</t>
-  </si>
-  <si>
-    <t>66.67%</t>
-  </si>
-  <si>
-    <t>8.33%</t>
-  </si>
-  <si>
-    <t>FRYSINGER V</t>
-  </si>
-  <si>
-    <t>68.75%</t>
-  </si>
-  <si>
-    <t>4.17%</t>
-  </si>
-  <si>
-    <t>2.08%</t>
-  </si>
-  <si>
-    <t>POWELL L</t>
-  </si>
-  <si>
-    <t>88.24%</t>
-  </si>
-  <si>
-    <t>5.88%</t>
-  </si>
-  <si>
-    <t>3.92%</t>
-  </si>
-  <si>
-    <t>1.96%</t>
-  </si>
-  <si>
-    <t>STURTEVANT K</t>
-  </si>
-  <si>
-    <t>30.77%</t>
-  </si>
-  <si>
-    <t>MORRIS S</t>
-  </si>
-  <si>
-    <t>PRESTON T</t>
-  </si>
-  <si>
-    <t>20.83%</t>
-  </si>
-  <si>
     <t>SOMS-481</t>
   </si>
   <si>
@@ -457,7 +511,16 @@
     <t>ARCAK C</t>
   </si>
   <si>
-    <t>19.61%</t>
+    <t>64.10%</t>
+  </si>
+  <si>
+    <t>20.51%</t>
+  </si>
+  <si>
+    <t>2.56%</t>
+  </si>
+  <si>
+    <t>5.13%</t>
   </si>
   <si>
     <t>EDWARDS S</t>
@@ -499,10 +562,19 @@
     <t>4.05%</t>
   </si>
   <si>
+    <t>BOGUE P</t>
+  </si>
+  <si>
+    <t>54.17%</t>
+  </si>
+  <si>
     <t>SOMS-485</t>
   </si>
   <si>
-    <t>62.50%</t>
+    <t>BROWN T</t>
+  </si>
+  <si>
+    <t>CUMMINS R</t>
   </si>
   <si>
     <t>12.50%</t>
@@ -842,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>3.925</v>
+        <v>3.9375</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -965,7 +1037,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>3.9638</v>
+        <v>3.9379</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1021,7 +1093,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>3.9507</v>
+        <v>3.9095</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
@@ -1049,7 +1121,7 @@
         <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0176</v>
+        <v>3.0551</v>
       </c>
       <c r="D19" t="s">
         <v>36</v>
@@ -1077,7 +1149,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="n">
-        <v>3.4035</v>
+        <v>3.4979</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
@@ -1092,7 +1164,7 @@
         <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1133,7 +1205,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="n">
-        <v>3.61</v>
+        <v>3.6157</v>
       </c>
       <c r="D28" t="s">
         <v>54</v>
@@ -1142,7 +1214,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s">
         <v>14</v>
@@ -1189,7 +1261,7 @@
         <v>59</v>
       </c>
       <c r="C34" t="n">
-        <v>3.22</v>
+        <v>3.3025</v>
       </c>
       <c r="D34" t="s">
         <v>60</v>
@@ -1212,7 +1284,7 @@
         <v>64</v>
       </c>
       <c r="C35" t="n">
-        <v>3.186</v>
+        <v>3.4275</v>
       </c>
       <c r="D35" t="s">
         <v>65</v>
@@ -1224,10 +1296,10 @@
         <v>67</v>
       </c>
       <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
         <v>68</v>
-      </c>
-      <c r="H35" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1235,7 +1307,7 @@
         <v>69</v>
       </c>
       <c r="C36" t="n">
-        <v>3.561</v>
+        <v>3.186</v>
       </c>
       <c r="D36" t="s">
         <v>70</v>
@@ -1247,7 +1319,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -1255,25 +1327,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" t="n">
-        <v>3.4275</v>
+        <v>3.561</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1286,7 +1358,7 @@
         <v>79</v>
       </c>
       <c r="C40" t="n">
-        <v>3.462</v>
+        <v>3.529</v>
       </c>
       <c r="D40" t="s">
         <v>80</v>
@@ -1304,159 +1376,159 @@
         <v>14</v>
       </c>
     </row>
+    <row r="41" spans="1:8">
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="42" spans="1:8">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3.4955</v>
+      </c>
+      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" t="n">
+        <v>3.472</v>
+      </c>
+      <c r="D45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="C48" t="n">
         <v>3.679</v>
       </c>
-      <c r="D43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" t="s">
-        <v>86</v>
-      </c>
-      <c r="F43" t="s">
-        <v>87</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="D48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
         <v>3.65</v>
       </c>
-      <c r="D46" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E49" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="B52" t="s">
+      <c r="D51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" t="s">
         <v>95</v>
       </c>
-      <c r="C52" t="n">
-        <v>3.8449</v>
-      </c>
-      <c r="D52" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>98</v>
-      </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" t="s">
-        <v>98</v>
+      <c r="F51" t="s">
+        <v>105</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="B53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" t="n">
-        <v>3.5725</v>
-      </c>
-      <c r="D53" t="s">
-        <v>100</v>
-      </c>
-      <c r="E53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" t="s">
-        <v>103</v>
+      <c r="A53" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="B54" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C54" t="n">
-        <v>3.728</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -1464,95 +1536,95 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="n">
+        <v>3.8263</v>
+      </c>
+      <c r="D57" t="s">
         <v>109</v>
       </c>
-      <c r="C57" t="n">
-        <v>3.846</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>110</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>52</v>
+      </c>
+      <c r="G57" t="s">
         <v>111</v>
       </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>14</v>
-      </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" t="n">
+        <v>3.5725</v>
+      </c>
+      <c r="D58" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="B60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D60" t="s">
-        <v>114</v>
-      </c>
-      <c r="E60" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.764</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" t="s">
+        <v>121</v>
+      </c>
+      <c r="G59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="B61" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3.615</v>
-      </c>
-      <c r="D61" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" t="s">
-        <v>118</v>
-      </c>
-      <c r="F61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G61" t="s">
-        <v>119</v>
-      </c>
-      <c r="H61" t="s">
-        <v>14</v>
+      <c r="A61" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="B62" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3.846</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="F62" t="s">
         <v>14</v>
@@ -1564,73 +1636,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="B63" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3.464</v>
-      </c>
-      <c r="D63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" t="s">
-        <v>123</v>
-      </c>
-      <c r="G63" t="s">
-        <v>87</v>
-      </c>
-      <c r="H63" t="s">
-        <v>123</v>
-      </c>
-    </row>
     <row r="64" spans="1:8">
-      <c r="B64" t="s">
-        <v>124</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D64" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" t="s">
-        <v>91</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>126</v>
-      </c>
-      <c r="H64" t="s">
-        <v>14</v>
+      <c r="A64" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="B65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C65" t="n">
-        <v>3.5845</v>
+        <v>3.8565</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F65" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -1638,7 +1669,7 @@
         <v>131</v>
       </c>
       <c r="C66" t="n">
-        <v>3.7915</v>
+        <v>3.615</v>
       </c>
       <c r="D66" t="s">
         <v>132</v>
@@ -1661,205 +1692,205 @@
         <v>136</v>
       </c>
       <c r="C67" t="n">
-        <v>3.308</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E67" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="G67" t="s">
         <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="D68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" t="s">
         <v>138</v>
       </c>
-      <c r="C68" t="n">
-        <v>3.417</v>
-      </c>
-      <c r="D68" t="s">
-        <v>125</v>
-      </c>
-      <c r="E68" t="s">
-        <v>115</v>
-      </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G68" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="B69" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C69" t="n">
-        <v>2.833</v>
+        <v>3.5</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E69" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="H69" t="s">
-        <v>129</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3.5845</v>
+      </c>
+      <c r="D70" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" t="s">
+        <v>95</v>
+      </c>
+      <c r="F70" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" t="s">
-        <v>141</v>
+      <c r="B71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.7915</v>
+      </c>
+      <c r="D71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" t="s">
+        <v>150</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="B72" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C72" t="n">
-        <v>3.704</v>
+        <v>3.308</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="E72" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F72" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G72" t="s">
         <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="B73" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C73" t="n">
-        <v>3.375</v>
+        <v>3.417</v>
       </c>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F73" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G73" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H73" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="B74" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C74" t="n">
-        <v>3.385</v>
+        <v>2.833</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="B75" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" t="n">
-        <v>3.615</v>
-      </c>
-      <c r="D75" t="s">
-        <v>151</v>
-      </c>
-      <c r="E75" t="s">
-        <v>111</v>
-      </c>
-      <c r="F75" t="s">
-        <v>118</v>
-      </c>
-      <c r="G75" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="B76" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" t="n">
-        <v>3.577</v>
-      </c>
-      <c r="D76" t="s">
-        <v>151</v>
-      </c>
-      <c r="E76" t="s">
-        <v>118</v>
-      </c>
-      <c r="F76" t="s">
-        <v>111</v>
-      </c>
-      <c r="G76" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
+      <c r="A76" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="B77" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C77" t="n">
-        <v>3.083</v>
+        <v>3.704</v>
       </c>
       <c r="D77" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F77" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="G77" t="s">
         <v>14</v>
@@ -1870,52 +1901,236 @@
     </row>
     <row r="78" spans="1:8">
       <c r="B78" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C78" t="n">
-        <v>3.1927</v>
+        <v>3.3487</v>
       </c>
       <c r="D78" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="E78" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F78" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="G78" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="B79" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="D79" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" t="s">
+        <v>153</v>
+      </c>
+      <c r="F79" t="s">
+        <v>134</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>161</v>
+      <c r="B80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.615</v>
+      </c>
+      <c r="D80" t="s">
+        <v>172</v>
+      </c>
+      <c r="E80" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="B81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.577</v>
+      </c>
+      <c r="D81" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" t="s">
+        <v>133</v>
+      </c>
+      <c r="F81" t="s">
+        <v>126</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="B82" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="D82" t="s">
+        <v>175</v>
+      </c>
+      <c r="E82" t="s">
+        <v>176</v>
+      </c>
+      <c r="F82" t="s">
         <v>95</v>
       </c>
-      <c r="C81" t="n">
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="B83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.1927</v>
+      </c>
+      <c r="D83" t="s">
+        <v>178</v>
+      </c>
+      <c r="E83" t="s">
+        <v>179</v>
+      </c>
+      <c r="F83" t="s">
+        <v>180</v>
+      </c>
+      <c r="G83" t="s">
+        <v>181</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="B84" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D84" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" t="s">
+        <v>142</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="B87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="B89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" t="n">
         <v>3.375</v>
       </c>
-      <c r="D81" t="s">
-        <v>162</v>
-      </c>
-      <c r="E81" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>163</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="D89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>187</v>
+      </c>
+      <c r="H89" t="s">
         <v>14</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Fall2013/Output/Fall2013 MS.xlsx
+++ b/GradeDistributionsDB/Fall2013/Output/Fall2013 MS.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AERS-101</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>0.59%</t>
+  </si>
+  <si>
     <t>CANTRELL C</t>
   </si>
   <si>
@@ -139,6 +145,9 @@
     <t>1.69%</t>
   </si>
   <si>
+    <t>2.48%</t>
+  </si>
+  <si>
     <t>MLSC-221</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
     <t>0.88%</t>
   </si>
   <si>
+    <t>1.74%</t>
+  </si>
+  <si>
     <t>MLSC-421</t>
   </si>
   <si>
@@ -223,6 +235,9 @@
     <t>1.15%</t>
   </si>
   <si>
+    <t>1.14%</t>
+  </si>
+  <si>
     <t>HAYNIE D</t>
   </si>
   <si>
@@ -238,6 +253,9 @@
     <t>2.33%</t>
   </si>
   <si>
+    <t>2.27%</t>
+  </si>
+  <si>
     <t>TRASK D</t>
   </si>
   <si>
@@ -355,6 +373,9 @@
     <t>1.33%</t>
   </si>
   <si>
+    <t>1.31%</t>
+  </si>
+  <si>
     <t>KOGUT R</t>
   </si>
   <si>
@@ -370,6 +391,9 @@
     <t>5.48%</t>
   </si>
   <si>
+    <t>1.35%</t>
+  </si>
+  <si>
     <t>VELA C</t>
   </si>
   <si>
@@ -385,6 +409,9 @@
     <t>4.24%</t>
   </si>
   <si>
+    <t>1.67%</t>
+  </si>
+  <si>
     <t>SOMS-180</t>
   </si>
   <si>
@@ -436,6 +463,9 @@
     <t>3.57%</t>
   </si>
   <si>
+    <t>3.45%</t>
+  </si>
+  <si>
     <t>OTHOLD L</t>
   </si>
   <si>
@@ -457,6 +487,9 @@
     <t>2.08%</t>
   </si>
   <si>
+    <t>2.04%</t>
+  </si>
+  <si>
     <t>POWELL L</t>
   </si>
   <si>
@@ -482,6 +515,9 @@
   </si>
   <si>
     <t>16.67%</t>
+  </si>
+  <si>
+    <t>4.00%</t>
   </si>
   <si>
     <t>PRESTON T</t>
@@ -615,12 +651,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -914,15 +949,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,1191 +982,1335 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.7658</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>3.9375</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>3.9861</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>3.9379</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
         <v>3.9095</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
         <v>3.0551</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C22" t="n">
         <v>3.4979</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C25" t="n">
         <v>3.6492</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" t="n">
         <v>3.6157</v>
       </c>
       <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
         <v>54</v>
       </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C31" t="n">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C34" t="n">
         <v>3.3025</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C35" t="n">
         <v>3.4275</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C36" t="n">
         <v>3.186</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C37" t="n">
         <v>3.561</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C40" t="n">
         <v>3.529</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C41" t="n">
         <v>3.52</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C42" t="n">
         <v>3.4955</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C45" t="n">
         <v>3.472</v>
       </c>
       <c r="D45" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C48" t="n">
         <v>3.679</v>
       </c>
       <c r="D48" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C51" t="n">
         <v>3.65</v>
       </c>
       <c r="D51" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F51" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C54" t="n">
         <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C57" t="n">
         <v>3.8263</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="B58" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C58" t="n">
         <v>3.5725</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="B59" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C59" t="n">
         <v>3.764</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G59" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="B62" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C62" t="n">
         <v>3.846</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="B65" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C65" t="n">
         <v>3.8565</v>
       </c>
       <c r="D65" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E65" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C66" t="n">
         <v>3.615</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F66" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G66" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="B67" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C67" t="n">
         <v>4</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="B68" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C68" t="n">
         <v>3.464</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F68" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G68" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C69" t="n">
         <v>3.5</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C70" t="n">
         <v>3.5845</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F70" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="I70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C71" t="n">
         <v>3.7915</v>
       </c>
       <c r="D71" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="F71" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G71" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C72" t="n">
         <v>3.308</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="E72" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F72" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H72" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C73" t="n">
         <v>3.417</v>
       </c>
       <c r="D73" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G73" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C74" t="n">
         <v>2.833</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="E74" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H74" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C77" t="n">
         <v>3.704</v>
       </c>
       <c r="D77" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="E77" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="F77" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C78" t="n">
         <v>3.3487</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="E78" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F78" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G78" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H78" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="B79" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C79" t="n">
         <v>3.385</v>
       </c>
       <c r="D79" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="F79" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H79" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>144</v>
+      </c>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C80" t="n">
         <v>3.615</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E80" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F80" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="C81" t="n">
         <v>3.577</v>
       </c>
       <c r="D81" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E81" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F81" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="B82" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C82" t="n">
         <v>3.083</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E82" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C83" t="n">
         <v>3.1927</v>
       </c>
       <c r="D83" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="E83" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="F83" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="G83" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C84" t="n">
         <v>3.333</v>
       </c>
       <c r="D84" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E84" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="F84" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H84" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C88" t="n">
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C89" t="n">
         <v>3.375</v>
       </c>
       <c r="D89" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E89" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
